--- a/BulkImport/MysoftDemo(702).xlsx
+++ b/BulkImport/MysoftDemo(702).xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25122"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\work\BulkImport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\workRepo\MysoftProject\BulkImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D560E6BD-E240-4438-A880-C621402A09F3}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC722FF-0A68-4072-97C6-191860AAC98C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="3" windowHeight="15840" windowWidth="29040" xWindow="25080" xr2:uid="{0674D02E-70AF-4956-8200-D88E6D10EE90}" yWindow="-120"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0674D02E-70AF-4956-8200-D88E6D10EE90}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="702" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet2" r:id="rId3" sheetId="3"/>
-    <sheet name="Logic" r:id="rId4" sheetId="4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="702" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Logic" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="75">
   <si>
     <t xml:space="preserve">Starting JackID </t>
   </si>
@@ -228,21 +227,47 @@
     <t>Geoffrey Demo AP</t>
   </si>
   <si>
+    <t>A01019CUPSB1-D</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>UPS-3KVA</t>
+  </si>
+  <si>
     <t>E520050B18-DW, PG103005</t>
   </si>
   <si>
+    <t>S-CENET</t>
+  </si>
+  <si>
     <t>E520050B1-D, PG109790</t>
   </si>
   <si>
     <t>A120353B1-DW, PG103005</t>
+  </si>
+  <si>
+    <t>A01019CUPSB1-D,0007</t>
+  </si>
+  <si>
+    <t>A442448UPSB1-D</t>
+  </si>
+  <si>
+    <t>UPS, two returns</t>
+  </si>
+  <si>
+    <t>Has -VD, AA-D in the same room</t>
+  </si>
+  <si>
+    <t>A442448UPSB1-D,0007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,26 +334,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -345,10 +371,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -383,7 +409,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -435,7 +461,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -546,21 +572,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -577,7 +603,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -629,31 +655,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9640836-8FEB-42CA-9951-A0F0D7B5F86A}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9640836-8FEB-42CA-9951-A0F0D7B5F86A}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="44.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +698,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -691,7 +717,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -706,7 +732,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -725,7 +751,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -744,7 +770,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -763,7 +789,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -778,7 +804,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -797,7 +823,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -816,7 +842,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="D10" s="1"/>
@@ -824,7 +850,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -834,7 +860,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -845,30 +871,30 @@
       <c r="G13" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E742EF-2B85-41A2-901D-D0492F9BFB76}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E742EF-2B85-41A2-901D-D0492F9BFB76}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="33.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="44.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="33.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="33.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="23.140625" collapsed="true"/>
-    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="33.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +911,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -902,7 +928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -913,7 +939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,7 +954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -945,7 +971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -962,7 +988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -973,7 +999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -981,7 +1007,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -998,7 +1024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1015,7 +1041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1032,7 +1058,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1046,7 +1072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -1060,7 +1086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1074,7 +1100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -1088,7 +1114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -1102,7 +1128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -1116,7 +1142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -1130,7 +1156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -1145,25 +1171,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9EBD13-F7C7-43A4-A92A-4BF2D4A07456}">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9EBD13-F7C7-43A4-A92A-4BF2D4A07456}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="33.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="1" max="1" width="33.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,29 +1197,26 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1201,7 +1224,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1209,31 +1232,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1241,15 +1264,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1257,7 +1280,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -1265,23 +1288,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1289,7 +1312,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1297,7 +1320,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1305,7 +1328,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1313,34 +1336,42 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="B20" s="1"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B1A0E0-C92A-42C7-B437-5220C8B399E3}">
-  <dimension ref="A1:F22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B1A0E0-C92A-42C7-B437-5220C8B399E3}">
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="33.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="44.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="33.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="33.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="23.140625" collapsed="true"/>
-    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="33.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1357,11 +1388,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1372,7 +1405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1382,7 +1415,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1397,7 +1430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1412,7 +1445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1427,7 +1460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1437,7 +1470,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1447,7 +1480,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,13 +1495,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -1477,7 +1510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1494,7 +1527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1511,7 +1544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -1528,7 +1561,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1545,7 +1578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -1562,7 +1595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -1579,7 +1612,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -1596,7 +1629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -1613,7 +1646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -1630,17 +1663,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="B20" s="3"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D22" s="3"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BulkImport/MysoftDemo(702).xlsx
+++ b/BulkImport/MysoftDemo(702).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\workRepo\MysoftProject\BulkImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC722FF-0A68-4072-97C6-191860AAC98C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9821BF88-B454-44DE-B895-818BD63A59F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{0674D02E-70AF-4956-8200-D88E6D10EE90}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0674D02E-70AF-4956-8200-D88E6D10EE90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="71">
   <si>
     <t xml:space="preserve">Starting JackID </t>
   </si>
@@ -234,18 +234,6 @@
   </si>
   <si>
     <t>UPS-3KVA</t>
-  </si>
-  <si>
-    <t>E520050B18-DW, PG103005</t>
-  </si>
-  <si>
-    <t>S-CENET</t>
-  </si>
-  <si>
-    <t>E520050B1-D, PG109790</t>
-  </si>
-  <si>
-    <t>A120353B1-DW, PG103005</t>
   </si>
   <si>
     <t>A01019CUPSB1-D,0007</t>
@@ -1177,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9EBD13-F7C7-43A4-A92A-4BF2D4A07456}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,8 +1186,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1209,143 +1197,115 @@
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1356,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B1A0E0-C92A-42C7-B437-5220C8B399E3}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,7 +1461,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -1668,10 +1628,10 @@
         <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>64</v>
@@ -1682,10 +1642,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>64</v>

--- a/BulkImport/MysoftDemo(702).xlsx
+++ b/BulkImport/MysoftDemo(702).xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\workRepo\MysoftProject\BulkImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9821BF88-B454-44DE-B895-818BD63A59F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9821BF88-B454-44DE-B895-818BD63A59F5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0674D02E-70AF-4956-8200-D88E6D10EE90}"/>
+    <workbookView activeTab="2" firstSheet="2" windowHeight="15840" windowWidth="29040" xWindow="25080" xr2:uid="{0674D02E-70AF-4956-8200-D88E6D10EE90}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="702" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Logic" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="702" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet2" r:id="rId3" sheetId="3"/>
+    <sheet name="Logic" r:id="rId4" sheetId="4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="79">
   <si>
     <t xml:space="preserve">Starting JackID </t>
   </si>
@@ -221,13 +222,25 @@
     <t>AP</t>
   </si>
   <si>
+    <t>A01019CUPSB1-D</t>
+  </si>
+  <si>
+    <t>A442448UPSB1-D</t>
+  </si>
+  <si>
     <t>WIRELESS-AP-INDOOR</t>
   </si>
   <si>
+    <t>Has -VD, AA-D in the same room</t>
+  </si>
+  <si>
     <t>Geoffrey Demo AP</t>
   </si>
   <si>
-    <t>A01019CUPSB1-D</t>
+    <t>A01019CUPSB1-D,0007</t>
+  </si>
+  <si>
+    <t>UPS, two returns</t>
   </si>
   <si>
     <t>UPS</t>
@@ -236,26 +249,39 @@
     <t>UPS-3KVA</t>
   </si>
   <si>
-    <t>A01019CUPSB1-D,0007</t>
-  </si>
-  <si>
-    <t>A442448UPSB1-D</t>
-  </si>
-  <si>
-    <t>UPS, two returns</t>
-  </si>
-  <si>
-    <t>Has -VD, AA-D in the same room</t>
-  </si>
-  <si>
     <t>A442448UPSB1-D,0007</t>
+  </si>
+  <si>
+    <t>E520050B18-DW, PG103005</t>
+  </si>
+  <si>
+    <t>S-CENET</t>
+  </si>
+  <si>
+    <t>E520050B1-D, PG109790</t>
+  </si>
+  <si>
+    <t>A120353B1-DW, PG103005</t>
+  </si>
+  <si>
+    <t>A041363AA-VD, Manual update needed, two results (no ap)</t>
+  </si>
+  <si>
+    <t>Manual Update needed</t>
+  </si>
+  <si>
+    <t>A01019CUPSB1-D, Manual update needed, two results (no ap)</t>
+  </si>
+  <si>
+    <t>A442448UPSB1-D, 0007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,27 +348,27 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -359,10 +385,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -397,7 +423,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -449,7 +475,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -560,21 +586,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -591,7 +617,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -643,31 +669,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9640836-8FEB-42CA-9951-A0F0D7B5F86A}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9640836-8FEB-42CA-9951-A0F0D7B5F86A}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="44.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +712,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -705,7 +731,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -720,7 +746,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -739,7 +765,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -758,7 +784,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -777,7 +803,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -792,7 +818,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -811,7 +837,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -830,7 +856,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="D10" s="1"/>
@@ -838,7 +864,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -848,7 +874,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -859,30 +885,30 @@
       <c r="G13" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E742EF-2B85-41A2-901D-D0492F9BFB76}">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E742EF-2B85-41A2-901D-D0492F9BFB76}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="33.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="44.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="33.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="33.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="23.140625" collapsed="true"/>
+    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,7 +925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,7 +942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,7 +953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -942,7 +968,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -959,7 +985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -976,7 +1002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -987,7 +1013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -995,7 +1021,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1012,7 +1038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1029,7 +1055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1046,7 +1072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1060,7 +1086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -1074,7 +1100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1088,7 +1114,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -1102,7 +1128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -1116,7 +1142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -1130,7 +1156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -1144,7 +1170,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -1159,25 +1185,25 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9EBD13-F7C7-43A4-A92A-4BF2D4A07456}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9EBD13-F7C7-43A4-A92A-4BF2D4A07456}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="33.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1185,153 +1211,192 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="B22" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B1A0E0-C92A-42C7-B437-5220C8B399E3}">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B1A0E0-C92A-42C7-B437-5220C8B399E3}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="44.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="33" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="33.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="44.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="33.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="33.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="23.140625" collapsed="true"/>
+    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1413,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1365,7 +1430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1375,7 +1440,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1384,13 +1449,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,7 +1470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1420,7 +1485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1430,7 +1495,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1440,7 +1505,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1449,19 +1514,19 @@
         <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -1470,7 +1535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1478,7 +1543,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
@@ -1487,7 +1552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1495,7 +1560,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>36</v>
@@ -1504,7 +1569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -1512,7 +1577,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>36</v>
@@ -1521,7 +1586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1529,7 +1594,7 @@
         <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>36</v>
@@ -1538,7 +1603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -1546,7 +1611,7 @@
         <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>36</v>
@@ -1555,7 +1620,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -1563,7 +1628,7 @@
         <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>36</v>
@@ -1572,7 +1637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -1580,7 +1645,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>36</v>
@@ -1589,7 +1654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -1597,7 +1662,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>36</v>
@@ -1606,7 +1671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -1614,7 +1679,7 @@
         <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>36</v>
@@ -1623,44 +1688,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="D22" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/BulkImport/MysoftDemo(702).xlsx
+++ b/BulkImport/MysoftDemo(702).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="81">
   <si>
     <t xml:space="preserve">Starting JackID </t>
   </si>
@@ -228,6 +228,9 @@
     <t>A442448UPSB1-D</t>
   </si>
   <si>
+    <t>e520050b1</t>
+  </si>
+  <si>
     <t>WIRELESS-AP-INDOOR</t>
   </si>
   <si>
@@ -271,6 +274,9 @@
   </si>
   <si>
     <t>A01019CUPSB1-D, Manual update needed, two results (no ap)</t>
+  </si>
+  <si>
+    <t>A01019CUPSB1-D, 0007</t>
   </si>
   <si>
     <t>A442448UPSB1-D, 0007</t>
@@ -1194,7 +1200,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1227,10 +1233,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1251,7 +1257,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1259,18 +1265,18 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1278,7 +1284,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1355,22 +1361,27 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="B22" s="1"/>
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1382,7 +1393,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1449,7 +1460,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -1514,7 +1525,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -1526,7 +1537,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -1543,7 +1554,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
@@ -1560,7 +1571,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>36</v>
@@ -1577,7 +1588,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>36</v>
@@ -1594,7 +1605,7 @@
         <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>36</v>
@@ -1611,7 +1622,7 @@
         <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>36</v>
@@ -1628,7 +1639,7 @@
         <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>36</v>
@@ -1645,7 +1656,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>36</v>
@@ -1662,7 +1673,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>36</v>
@@ -1679,7 +1690,7 @@
         <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>36</v>
@@ -1693,16 +1704,16 @@
         <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1710,19 +1721,22 @@
         <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D22" s="3"/>
     </row>
   </sheetData>

--- a/BulkImport/MysoftDemo(702).xlsx
+++ b/BulkImport/MysoftDemo(702).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="87">
   <si>
     <t xml:space="preserve">Starting JackID </t>
   </si>
@@ -231,6 +231,18 @@
     <t>e520050b1</t>
   </si>
   <si>
+    <t>H991122AA</t>
+  </si>
+  <si>
+    <t>H991122AA-d</t>
+  </si>
+  <si>
+    <t>A041363AA-D</t>
+  </si>
+  <si>
+    <t>A041363AA</t>
+  </si>
+  <si>
     <t>WIRELESS-AP-INDOOR</t>
   </si>
   <si>
@@ -267,19 +279,25 @@
     <t>A120353B1-DW, PG103005</t>
   </si>
   <si>
-    <t>A041363AA-VD, Manual update needed, two results (no ap)</t>
+    <t>A01019CUPSB1-D, Manual update needed, two results (no ap)</t>
+  </si>
+  <si>
+    <t>A01019CUPSB1-D, 0007</t>
+  </si>
+  <si>
+    <t>A442448UPSB1-D, 0007</t>
   </si>
   <si>
     <t>Manual Update needed</t>
   </si>
   <si>
-    <t>A01019CUPSB1-D, Manual update needed, two results (no ap)</t>
-  </si>
-  <si>
-    <t>A01019CUPSB1-D, 0007</t>
-  </si>
-  <si>
-    <t>A442448UPSB1-D, 0007</t>
+    <t>H991122AA-DW, PG112220</t>
+  </si>
+  <si>
+    <t>A041363AA-D, PG103139</t>
+  </si>
+  <si>
+    <t>A041363AA, Manual update needed, two results (no ap)</t>
   </si>
 </sst>
 </file>
@@ -1197,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9EBD13-F7C7-43A4-A92A-4BF2D4A07456}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B2" sqref="B2:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1233,10 +1251,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1257,7 +1275,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1265,26 +1283,26 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1361,18 +1379,18 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1380,8 +1398,58 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
-      </c>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="B32" s="1"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1390,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B1A0E0-C92A-42C7-B437-5220C8B399E3}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1460,7 +1528,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -1525,7 +1593,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -1537,7 +1605,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -1554,7 +1622,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
@@ -1571,7 +1639,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>36</v>
@@ -1588,7 +1656,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>36</v>
@@ -1605,7 +1673,7 @@
         <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>36</v>
@@ -1622,7 +1690,7 @@
         <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>36</v>
@@ -1639,7 +1707,7 @@
         <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>36</v>
@@ -1656,7 +1724,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>36</v>
@@ -1673,7 +1741,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>36</v>
@@ -1690,7 +1758,7 @@
         <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>36</v>
@@ -1704,16 +1772,16 @@
         <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1721,13 +1789,13 @@
         <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
@@ -1738,6 +1806,26 @@
         <v>63</v>
       </c>
       <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/BulkImport/MysoftDemo(702).xlsx
+++ b/BulkImport/MysoftDemo(702).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="90">
   <si>
     <t xml:space="preserve">Starting JackID </t>
   </si>
@@ -243,6 +243,9 @@
     <t>A041363AA</t>
   </si>
   <si>
+    <t>G012010AA</t>
+  </si>
+  <si>
     <t>WIRELESS-AP-INDOOR</t>
   </si>
   <si>
@@ -298,6 +301,12 @@
   </si>
   <si>
     <t>A041363AA, Manual update needed, two results (no ap)</t>
+  </si>
+  <si>
+    <t>G012010AA, Manual update needed, two results (no ap)</t>
+  </si>
+  <si>
+    <t>G012010AA-D, PG112203</t>
   </si>
 </sst>
 </file>
@@ -305,7 +314,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +333,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ARIAL"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -374,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -387,6 +403,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1218,7 +1235,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="B2" sqref="B2:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1251,10 +1268,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1275,7 +1292,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1283,18 +1300,18 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1379,18 +1396,18 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1398,12 +1415,12 @@
         <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -1411,7 +1428,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
         <v>36</v>
@@ -1419,7 +1436,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -1430,11 +1447,16 @@
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="B27" s="1"/>
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" s="1"/>
@@ -1458,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B1A0E0-C92A-42C7-B437-5220C8B399E3}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A26"/>
+      <selection activeCell="A2" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1528,7 +1550,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -1593,7 +1615,7 @@
         <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -1605,7 +1627,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -1622,7 +1644,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
@@ -1639,7 +1661,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>36</v>
@@ -1656,7 +1678,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>36</v>
@@ -1673,7 +1695,7 @@
         <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>36</v>
@@ -1690,7 +1712,7 @@
         <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>36</v>
@@ -1707,7 +1729,7 @@
         <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>36</v>
@@ -1724,7 +1746,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>36</v>
@@ -1741,7 +1763,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>36</v>
@@ -1758,7 +1780,7 @@
         <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>36</v>
@@ -1772,16 +1794,16 @@
         <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1789,13 +1811,13 @@
         <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>8</v>
@@ -1825,6 +1847,11 @@
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/BulkImport/MysoftDemo(702).xlsx
+++ b/BulkImport/MysoftDemo(702).xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25217"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\workRepo\MysoftProject\BulkImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9821BF88-B454-44DE-B895-818BD63A59F5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220C339C-9E32-4AC2-ABB9-AD13DE396E5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="2" firstSheet="2" windowHeight="15840" windowWidth="29040" xWindow="25080" xr2:uid="{0674D02E-70AF-4956-8200-D88E6D10EE90}" yWindow="-120"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{0674D02E-70AF-4956-8200-D88E6D10EE90}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="702" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet2" r:id="rId3" sheetId="3"/>
-    <sheet name="Logic" r:id="rId4" sheetId="4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="702" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Logic" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -29,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="90">
   <si>
     <t xml:space="preserve">Starting JackID </t>
   </si>
@@ -273,18 +272,12 @@
     <t>E520050B18-DW, PG103005</t>
   </si>
   <si>
-    <t>S-CENET</t>
-  </si>
-  <si>
     <t>E520050B1-D, PG109790</t>
   </si>
   <si>
     <t>A120353B1-DW, PG103005</t>
   </si>
   <si>
-    <t>A01019CUPSB1-D, Manual update needed, two results (no ap)</t>
-  </si>
-  <si>
     <t>A01019CUPSB1-D, 0007</t>
   </si>
   <si>
@@ -300,21 +293,26 @@
     <t>A041363AA-D, PG103139</t>
   </si>
   <si>
-    <t>A041363AA, Manual update needed, two results (no ap)</t>
-  </si>
-  <si>
-    <t>G012010AA, Manual update needed, two results (no ap)</t>
-  </si>
-  <si>
     <t>G012010AA-D, PG112203</t>
+  </si>
+  <si>
+    <t>Closet</t>
+  </si>
+  <si>
+    <t>source port</t>
+  </si>
+  <si>
+    <t>target port</t>
+  </si>
+  <si>
+    <t>j40-2a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,28 +386,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -426,10 +424,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -464,7 +462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -516,7 +514,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -627,21 +625,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -658,7 +656,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -710,31 +708,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9640836-8FEB-42CA-9951-A0F0D7B5F86A}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9640836-8FEB-42CA-9951-A0F0D7B5F86A}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="44.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,7 +751,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -772,7 +770,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -787,7 +785,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -806,7 +804,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -825,7 +823,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -844,7 +842,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -859,7 +857,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -878,7 +876,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -897,7 +895,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="D10" s="1"/>
@@ -905,7 +903,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -915,7 +913,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -926,30 +924,30 @@
       <c r="G13" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E742EF-2B85-41A2-901D-D0492F9BFB76}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E742EF-2B85-41A2-901D-D0492F9BFB76}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="33.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="44.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="33.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="33.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="23.140625" collapsed="true"/>
-    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="33.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -966,7 +964,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -983,7 +981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -994,7 +992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1009,7 +1007,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1026,7 +1024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1043,7 +1041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1054,7 +1052,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1062,7 +1060,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1079,7 +1077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1096,7 +1094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1113,7 +1111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1127,7 +1125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -1141,7 +1139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1155,7 +1153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -1169,7 +1167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -1183,7 +1181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -1197,7 +1195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -1211,7 +1209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -1226,278 +1224,451 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9EBD13-F7C7-43A4-A92A-4BF2D4A07456}">
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9EBD13-F7C7-43A4-A92A-4BF2D4A07456}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B28"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="33.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="1" max="1" width="33.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>77</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>59</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="D20" s="1">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
       <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>86</v>
-      </c>
       <c r="B25" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>82</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B1A0E0-C92A-42C7-B437-5220C8B399E3}">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B1A0E0-C92A-42C7-B437-5220C8B399E3}">
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="33.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="44.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="33.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="33.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="23.140625" collapsed="true"/>
-    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="33.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="44.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="33" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +1685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1531,7 +1702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1541,7 +1712,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1556,7 +1727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1571,7 +1742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1586,7 +1757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1596,7 +1767,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1606,7 +1777,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1621,7 +1792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1636,7 +1807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1653,7 +1824,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1670,7 +1841,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -1687,7 +1858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1704,7 +1875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -1721,7 +1892,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -1738,7 +1909,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -1755,7 +1926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -1772,7 +1943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -1789,7 +1960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
@@ -1806,7 +1977,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -1823,38 +1994,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BulkImport/MysoftDemo(702).xlsx
+++ b/BulkImport/MysoftDemo(702).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25216"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\workRepo\MysoftProject\BulkImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220C339C-9E32-4AC2-ABB9-AD13DE396E5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220C339C-9E32-4AC2-ABB9-AD13DE396E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{0674D02E-70AF-4956-8200-D88E6D10EE90}"/>
   </bookViews>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="92">
   <si>
     <t xml:space="preserve">Starting JackID </t>
   </si>
@@ -221,13 +222,85 @@
     <t>AP</t>
   </si>
   <si>
+    <t>Closet</t>
+  </si>
+  <si>
+    <t>source port</t>
+  </si>
+  <si>
+    <t>target port</t>
+  </si>
+  <si>
+    <t>j40-2a</t>
+  </si>
+  <si>
+    <t>j40-2b</t>
+  </si>
+  <si>
+    <t>E520050B18-DW, PG103005</t>
+  </si>
+  <si>
+    <t>WIRELESS-AP-INDOOR</t>
+  </si>
+  <si>
+    <t>e63-GA</t>
+  </si>
+  <si>
+    <t>E520050B1-D, PG109790</t>
+  </si>
+  <si>
+    <t>A120353B1-DW, PG103005</t>
+  </si>
+  <si>
+    <t>A01019CUPSB1-D, 0007</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>A442448UPSB1-D, 0007</t>
+  </si>
+  <si>
+    <t>e520050b1</t>
+  </si>
+  <si>
+    <t>Manual Update needed</t>
+  </si>
+  <si>
+    <t>H991122AA-DW, PG112220</t>
+  </si>
+  <si>
+    <t>A041363AA-D, PG103139</t>
+  </si>
+  <si>
+    <t>A041363AA</t>
+  </si>
+  <si>
+    <t>G012010AA-D, PG112203</t>
+  </si>
+  <si>
+    <t>Has -VD, AA-D in the same room</t>
+  </si>
+  <si>
+    <t>Geoffrey Demo AP</t>
+  </si>
+  <si>
     <t>A01019CUPSB1-D</t>
   </si>
   <si>
+    <t>A01019CUPSB1-D,0007</t>
+  </si>
+  <si>
+    <t>UPS, two returns</t>
+  </si>
+  <si>
+    <t>UPS-3KVA</t>
+  </si>
+  <si>
     <t>A442448UPSB1-D</t>
   </si>
   <si>
-    <t>e520050b1</t>
+    <t>A442448UPSB1-D,0007</t>
   </si>
   <si>
     <t>H991122AA</t>
@@ -239,80 +312,14 @@
     <t>A041363AA-D</t>
   </si>
   <si>
-    <t>A041363AA</t>
-  </si>
-  <si>
     <t>G012010AA</t>
-  </si>
-  <si>
-    <t>WIRELESS-AP-INDOOR</t>
-  </si>
-  <si>
-    <t>Has -VD, AA-D in the same room</t>
-  </si>
-  <si>
-    <t>Geoffrey Demo AP</t>
-  </si>
-  <si>
-    <t>A01019CUPSB1-D,0007</t>
-  </si>
-  <si>
-    <t>UPS, two returns</t>
-  </si>
-  <si>
-    <t>UPS</t>
-  </si>
-  <si>
-    <t>UPS-3KVA</t>
-  </si>
-  <si>
-    <t>A442448UPSB1-D,0007</t>
-  </si>
-  <si>
-    <t>E520050B18-DW, PG103005</t>
-  </si>
-  <si>
-    <t>E520050B1-D, PG109790</t>
-  </si>
-  <si>
-    <t>A120353B1-DW, PG103005</t>
-  </si>
-  <si>
-    <t>A01019CUPSB1-D, 0007</t>
-  </si>
-  <si>
-    <t>A442448UPSB1-D, 0007</t>
-  </si>
-  <si>
-    <t>Manual Update needed</t>
-  </si>
-  <si>
-    <t>H991122AA-DW, PG112220</t>
-  </si>
-  <si>
-    <t>A041363AA-D, PG103139</t>
-  </si>
-  <si>
-    <t>G012010AA-D, PG112203</t>
-  </si>
-  <si>
-    <t>Closet</t>
-  </si>
-  <si>
-    <t>source port</t>
-  </si>
-  <si>
-    <t>target port</t>
-  </si>
-  <si>
-    <t>j40-2a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -722,7 +729,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.28515625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
@@ -732,7 +739,7 @@
     <col min="6" max="6" width="23.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +758,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -770,7 +777,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -785,7 +792,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -804,7 +811,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -823,7 +830,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -842,7 +849,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -857,7 +864,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -876,7 +883,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -895,7 +902,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="D10" s="1"/>
@@ -903,7 +910,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -913,7 +920,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -936,7 +943,7 @@
       <selection activeCell="D11" sqref="D11:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.28515625" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
@@ -947,7 +954,7 @@
     <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -964,7 +971,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -981,7 +988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,7 +999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1007,7 +1014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1024,7 +1031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1041,7 +1048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1052,7 +1059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1060,7 +1067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1077,7 +1084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1094,7 +1101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1111,7 +1118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1125,7 +1132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -1139,7 +1146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1153,7 +1160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -1167,7 +1174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -1181,7 +1188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -1195,7 +1202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -1209,7 +1216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -1233,10 +1240,10 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.28515625" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="39" customWidth="1" collapsed="1"/>
@@ -1245,45 +1252,48 @@
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D3" s="1">
         <v>2</v>
       </c>
@@ -1291,12 +1301,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
@@ -1305,12 +1318,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
-        <v>36</v>
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D5" s="1">
         <v>4</v>
@@ -1319,12 +1335,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1333,12 +1352,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -1347,12 +1369,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" t="s">
-        <v>69</v>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -1361,12 +1386,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
@@ -1375,12 +1403,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1389,12 +1420,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B11" t="s">
-        <v>36</v>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -1403,12 +1437,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D12" s="1">
         <v>3</v>
@@ -1417,12 +1454,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
-        <v>36</v>
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D13" s="1">
         <v>4</v>
@@ -1431,12 +1471,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1445,12 +1488,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D15" s="1">
         <v>2</v>
@@ -1459,12 +1505,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B16" t="s">
-        <v>36</v>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -1473,12 +1522,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D17" s="1">
         <v>4</v>
@@ -1487,12 +1539,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1501,12 +1556,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B19" t="s">
-        <v>36</v>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D19" s="1">
         <v>2</v>
@@ -1515,12 +1573,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" t="s">
-        <v>74</v>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -1529,12 +1590,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" t="s">
-        <v>74</v>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D21" s="1">
         <v>4</v>
@@ -1543,12 +1607,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>82</v>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1557,12 +1624,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D23" s="1">
         <v>2</v>
@@ -1571,12 +1641,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -1585,12 +1658,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D25" s="1">
         <v>4</v>
@@ -1599,12 +1675,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>82</v>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -1613,12 +1692,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
@@ -1627,22 +1709,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5">
       <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5">
       <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5">
       <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5">
       <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1657,7 +1752,7 @@
       <selection activeCell="A2" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.28515625" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
@@ -1668,7 +1763,7 @@
     <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1685,7 +1780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1702,7 +1797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1712,7 +1807,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1721,13 +1816,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1742,7 +1837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1757,7 +1852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1767,7 +1862,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1777,7 +1872,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1786,19 +1881,19 @@
         <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
@@ -1807,7 +1902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1815,7 +1910,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>36</v>
@@ -1824,7 +1919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1832,7 +1927,7 @@
         <v>45</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>36</v>
@@ -1841,7 +1936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -1849,7 +1944,7 @@
         <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>36</v>
@@ -1858,7 +1953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1961,7 @@
         <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>36</v>
@@ -1875,7 +1970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -1883,7 +1978,7 @@
         <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>36</v>
@@ -1892,7 +1987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -1900,7 +1995,7 @@
         <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>36</v>
@@ -1909,7 +2004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -1917,7 +2012,7 @@
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>36</v>
@@ -1926,7 +2021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -1934,7 +2029,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>36</v>
@@ -1943,7 +2038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -1951,7 +2046,7 @@
         <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>36</v>
@@ -1960,69 +2055,69 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="8" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/BulkImport/MysoftDemo(702).xlsx
+++ b/BulkImport/MysoftDemo(702).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\workRepo\MysoftProject\BulkImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220C339C-9E32-4AC2-ABB9-AD13DE396E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A37F97C-B761-48A0-BCCE-601831098902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{0674D02E-70AF-4956-8200-D88E6D10EE90}"/>
   </bookViews>
@@ -319,7 +319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,7 +729,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1" collapsed="1"/>
@@ -739,7 +739,7 @@
     <col min="6" max="6" width="23.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +758,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,7 +777,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -792,7 +792,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -811,7 +811,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -830,7 +830,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -849,7 +849,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -864,7 +864,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -883,7 +883,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -902,7 +902,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="D10" s="1"/>
@@ -910,7 +910,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="D12" s="1" t="s">
@@ -920,7 +920,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="1" t="s">
@@ -943,7 +943,7 @@
       <selection activeCell="D11" sqref="D11:D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
@@ -954,7 +954,7 @@
     <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +971,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -988,7 +988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -999,7 +999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -1240,10 +1240,10 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="39" customWidth="1" collapsed="1"/>
@@ -1252,7 +1252,7 @@
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>66</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>69</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>66</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>70</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1437,7 +1437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -1471,7 +1471,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>49</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>55</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>57</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>59</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>77</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
@@ -1709,31 +1709,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1752,7 +1752,7 @@
       <selection activeCell="A2" sqref="A2:A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.28515625" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
@@ -1763,7 +1763,7 @@
     <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1862,7 +1862,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>41</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>44</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>48</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>50</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>56</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -2089,33 +2089,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>91</v>
       </c>
